--- a/biology/Botanique/Altho/Altho.xlsx
+++ b/biology/Botanique/Altho/Altho.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Altho est une entreprise française spécialisée dans la fabrication et la commercialisation de chips de pomme de terre, fondée en 1995. 
-Elle possède 2 sites de production : Saint-Gérand dans le Morbihan, Le Pouzin (Ardèche) [3]. Elle vend ses produits principalement sous marques de distributeur, mais a également sa propre marque, Bret's, qui occupe 7 % du marché national des chips[réf. souhaitée]. 
-En 2021, elle emploie plus de 300 salariés[4],[5] et réalise un chiffre d'affaires annuel de 95 millions d'euros[6],[7].
+Elle possède 2 sites de production : Saint-Gérand dans le Morbihan, Le Pouzin (Ardèche) . Elle vend ses produits principalement sous marques de distributeur, mais a également sa propre marque, Bret's, qui occupe 7 % du marché national des chips[réf. souhaitée]. 
+En 2021, elle emploie plus de 300 salariés, et réalise un chiffre d'affaires annuel de 95 millions d'euros,.
 </t>
         </is>
       </c>
@@ -514,12 +526,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1991, Alain Glon (devenu président de l'Institut de Locarn) crée une filière de pommes de terre en partenariat avec des agriculteurs en leur apportant des conseils dans la sélection des variétés et des techniques culturales.
 En 1995, il crée Altho, PME à capital familial installée en Centre-Bretagne (Saint Gérand).
-En 2006, Altho devient la première usine de chips certifiée IFS (International Food Standard) en France[8].
-Altho a construit une seconde usine au Pouzin (Ardèche), qui a commencé sa production en avril 2014 pour renforcer sa présence commerciale dans le sud de la France[6],[9].
+En 2006, Altho devient la première usine de chips certifiée IFS (International Food Standard) en France.
+Altho a construit une seconde usine au Pouzin (Ardèche), qui a commencé sa production en avril 2014 pour renforcer sa présence commerciale dans le sud de la France,.
 </t>
         </is>
       </c>
@@ -548,16 +562,12 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-En 2013, Altho se lance dans la fabrication de chips de légumes[10].
-Bret's
-La marque Bret's, issue de la société Altho, tient son nom du diminutif de Bretagne, en y ajoutant le « 's » du possessif en anglais.
-C'est la première marque de chips en France à avoir proposé des chips aromatisées, comme celles au poulet braisé, qui ont fait sa réputation à ses débuts[10]. Dans les années 2010, elle reste son best-seller et se classe numéro deux derrière la barbecue Lay's[11].
-Parmi l'offre de chips aromatisées, plusieurs ingrédients issus de Bretagne ont fait leur apparition, dans diverses recettes : sel de Guérande, caramel au beurre salé[12], huître (saveur marine), oignon de Roscoff[13], etc. Bret's est la première marque à lancer son offre bio labellisée AB[14].
-En 2017, Bret's innove au niveau packaging avec une solution inédite dans les chips, qui permet de faire office de contenant[15].
-Gammes</t>
+En 2013, Altho se lance dans la fabrication de chips de légumes.</t>
         </is>
       </c>
     </row>
@@ -582,15 +592,57 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Produits</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bret's</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La marque Bret's, issue de la société Altho, tient son nom du diminutif de Bretagne, en y ajoutant le « 's » du possessif en anglais.
+C'est la première marque de chips en France à avoir proposé des chips aromatisées, comme celles au poulet braisé, qui ont fait sa réputation à ses débuts. Dans les années 2010, elle reste son best-seller et se classe numéro deux derrière la barbecue Lay's.
+Parmi l'offre de chips aromatisées, plusieurs ingrédients issus de Bretagne ont fait leur apparition, dans diverses recettes : sel de Guérande, caramel au beurre salé, huître (saveur marine), oignon de Roscoff, etc. Bret's est la première marque à lancer son offre bio labellisée AB.
+En 2017, Bret's innove au niveau packaging avec une solution inédite dans les chips, qui permet de faire office de contenant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Altho</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Altho</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2013, les chips au sel de Guérande certifiées Agriculture biologique sont distinguées par la première édition des Palmes de l’Alimentation[16] et ce produit est élu meilleure nouveauté Produit en Bretagne[17].
-En 2015, un jury composé de 170 personnes décerne le prix de la « Meilleure Nouveauté Produit en Bretagne » pour les chips aux légumes[18].
-Le packaging « Party Pack » remporte l'Oscars de l'emballage 2017, organisés par Infopro, dans la catégorie « consommation » en fonctionnalité d'usage[19].
-En 2021, les chips au sarrasin, conçues avec le crêpier Bertel, reçoivent le prix « meilleure nouveauté Produit en Bretagne »[20].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2013, les chips au sel de Guérande certifiées Agriculture biologique sont distinguées par la première édition des Palmes de l’Alimentation et ce produit est élu meilleure nouveauté Produit en Bretagne.
+En 2015, un jury composé de 170 personnes décerne le prix de la « Meilleure Nouveauté Produit en Bretagne » pour les chips aux légumes.
+Le packaging « Party Pack » remporte l'Oscars de l'emballage 2017, organisés par Infopro, dans la catégorie « consommation » en fonctionnalité d'usage.
+En 2021, les chips au sarrasin, conçues avec le crêpier Bertel, reçoivent le prix « meilleure nouveauté Produit en Bretagne ».
 </t>
         </is>
       </c>
